--- a/tests/data.gui/test/spectrophotometry/dsl.4/peaks.only/kev.constants.data.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.4/peaks.only/kev.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">INH</t>
   </si>
@@ -188,10 +188,13 @@
     <t xml:space="preserve">5.098876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0835073050010542</t>
+    <t xml:space="preserve">0.0835073049952924</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999362</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.999362457907217</v>
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1210,87 +1213,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.88956852236889e-07</v>
+        <v>0.000000888956852236889</v>
       </c>
       <c r="B2" t="n">
         <v>0.000132238956852198</v>
       </c>
       <c r="C2" t="n">
-        <v>1.47610431484415e-05</v>
+        <v>0.0000147610431484415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.98386803751487e-06</v>
+        <v>0.00000198386803751487</v>
       </c>
       <c r="B3" t="n">
         <v>0.000117683868037428</v>
       </c>
       <c r="C3" t="n">
-        <v>2.93161319638568e-05</v>
+        <v>0.0000293161319638568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.35726841218017e-06</v>
+        <v>0.00000335726841218017</v>
       </c>
       <c r="B4" t="n">
         <v>0.00010340726841203</v>
       </c>
       <c r="C4" t="n">
-        <v>4.35927315899146e-05</v>
+        <v>0.0000435927315899146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.11434368327523e-06</v>
+        <v>0.00000511434368327523</v>
       </c>
       <c r="B5" t="n">
-        <v>8.95143436830408e-05</v>
+        <v>0.0000895143436830408</v>
       </c>
       <c r="C5" t="n">
-        <v>5.7485656319595e-05</v>
+        <v>0.000057485656319595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.4096420657485e-06</v>
+        <v>0.0000074096420657485</v>
       </c>
       <c r="B6" t="n">
-        <v>7.61496420653946e-05</v>
+        <v>0.0000761496420653946</v>
       </c>
       <c r="C6" t="n">
-        <v>7.08503579379906e-05</v>
+        <v>0.0000708503579379906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.04581730954792e-05</v>
+        <v>0.0000104581730954792</v>
       </c>
       <c r="B7" t="n">
-        <v>6.35481730949491e-05</v>
+        <v>0.0000635481730949491</v>
       </c>
       <c r="C7" t="n">
-        <v>8.34518269093057e-05</v>
+        <v>0.0000834518269093057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.45646538891271e-05</v>
+        <v>0.0000145646538891271</v>
       </c>
       <c r="B8" t="n">
-        <v>5.19646538883339e-05</v>
+        <v>0.0000519646538883339</v>
       </c>
       <c r="C8" t="n">
-        <v>9.5035346117092e-05</v>
+        <v>0.000095035346117092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.00257484315667e-05</v>
+        <v>0.0000200257484315667</v>
       </c>
       <c r="B9" t="n">
-        <v>4.18257484304849e-05</v>
+        <v>0.0000418257484304849</v>
       </c>
       <c r="C9" t="n">
         <v>0.000105174251577088</v>
@@ -1298,10 +1301,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.71960516142657e-05</v>
+        <v>0.0000271960516142657</v>
       </c>
       <c r="B10" t="n">
-        <v>3.32960516135347e-05</v>
+        <v>0.0000332960516135347</v>
       </c>
       <c r="C10" t="n">
         <v>0.000113703948400298</v>
@@ -1309,10 +1312,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.60800051387466e-05</v>
+        <v>0.0000360800051387466</v>
       </c>
       <c r="B11" t="n">
-        <v>2.65800051412428e-05</v>
+        <v>0.0000265800051412428</v>
       </c>
       <c r="C11" t="n">
         <v>0.000120419994895051</v>
